--- a/CETC/ExcelFile/productionLineName.xlsx
+++ b/CETC/ExcelFile/productionLineName.xlsx
@@ -48,10 +48,11 @@
     <t>9号车</t>
   </si>
   <si>
-    <t>10号车</t>
-  </si>
-  <si>
     <t>产线Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +402,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -413,7 +414,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -496,7 +497,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/CETC/ExcelFile/productionLineName.xlsx
+++ b/CETC/ExcelFile/productionLineName.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB11844-619E-4E5C-BBC1-7420FF95D0C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,11 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>产线名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>1号车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +45,138 @@
     <t>9号车</t>
   </si>
   <si>
-    <t>产线Tag</t>
+    <t>LineNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A1车</t>
+    <t>LineName</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11号车</t>
+  </si>
+  <si>
+    <t>12号车</t>
+  </si>
+  <si>
+    <t>13号车</t>
+  </si>
+  <si>
+    <t>14号车</t>
+  </si>
+  <si>
+    <t>15号车</t>
+  </si>
+  <si>
+    <t>16号车</t>
+  </si>
+  <si>
+    <t>17号车</t>
+  </si>
+  <si>
+    <t>18号车</t>
+  </si>
+  <si>
+    <t>19号车</t>
+  </si>
+  <si>
+    <t>20号车</t>
+  </si>
+  <si>
+    <t>21号车</t>
+  </si>
+  <si>
+    <t>22号车</t>
+  </si>
+  <si>
+    <t>23号车</t>
+  </si>
+  <si>
+    <t>24号车</t>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,8 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -107,6 +225,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -155,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -188,9 +309,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -414,90 +569,202 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CETC/ExcelFile/productionLineName.xlsx
+++ b/CETC/ExcelFile/productionLineName.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB11844-619E-4E5C-BBC1-7420FF95D0C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,26 +308,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,23 +343,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,11 +518,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A25"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
